--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="24210" windowHeight="12570"/>
+    <workbookView xWindow="990" yWindow="0" windowWidth="18180" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>查找时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +66,58 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，1k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存不重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存不重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则不重复（生成失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，2k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，4k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，8k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，16k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，32k缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k更新请求，64k缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +184,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,42 +492,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -481,62 +542,80 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>35100</v>
+        <v>3038081</v>
       </c>
       <c r="C5">
-        <v>9088</v>
+        <v>9053</v>
       </c>
       <c r="D5">
-        <v>29041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>29997</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>36769</v>
+        <v>3030698</v>
       </c>
       <c r="C6">
-        <v>9106</v>
+        <v>9140</v>
       </c>
       <c r="D6">
-        <v>29111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>29955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>36644</v>
+        <v>3033918</v>
       </c>
       <c r="C7">
-        <v>9070</v>
+        <v>8959</v>
       </c>
       <c r="D7">
-        <v>29471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+      <c r="B8">
+        <f>AVERAGE(B5:B7)</f>
+        <v>3034232.3333333335</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9050.6666666666661</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D5:D7)</f>
+        <v>29970.666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,59 +626,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>372658</v>
+        <v>3353751</v>
       </c>
       <c r="C12">
-        <v>9273</v>
+        <v>9219</v>
       </c>
       <c r="D12">
-        <v>32131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>32637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>369161</v>
+        <v>3128633</v>
       </c>
       <c r="C13">
-        <v>9170</v>
+        <v>9429</v>
       </c>
       <c r="D13">
-        <v>31973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>26187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>372833</v>
+        <v>3343755</v>
       </c>
       <c r="C14">
-        <v>9214</v>
+        <v>9104</v>
       </c>
       <c r="D14">
-        <v>32191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>32485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B15">
+        <f>AVERAGE(B12:B14)</f>
+        <v>3275379.6666666665</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C12:C14)</f>
+        <v>9250.6666666666661</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D12:D14)</f>
+        <v>30436.333333333332</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
@@ -617,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>388192</v>
+        <v>3535941</v>
       </c>
       <c r="C19">
-        <v>9768</v>
+        <v>9589</v>
       </c>
       <c r="D19">
-        <v>35988</v>
+        <v>36292</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -631,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>363749</v>
+        <v>3538280</v>
       </c>
       <c r="C20">
-        <v>9600</v>
+        <v>9618</v>
       </c>
       <c r="D20">
-        <v>35956</v>
+        <v>36292</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -645,26 +736,38 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>401995</v>
+        <v>3513063</v>
       </c>
       <c r="C21">
-        <v>9652</v>
+        <v>9064</v>
       </c>
       <c r="D21">
-        <v>36119</v>
+        <v>35886</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B22">
+        <f>AVERAGE(B19:B21)</f>
+        <v>3529094.6666666665</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C19:C21)</f>
+        <v>9423.6666666666661</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D19:D21)</f>
+        <v>36156.666666666664</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
@@ -682,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>497929</v>
+        <v>3513758</v>
       </c>
       <c r="C26">
-        <v>10220</v>
+        <v>10173</v>
       </c>
       <c r="D26">
-        <v>38682</v>
+        <v>39958</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -696,13 +799,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>479759</v>
+        <v>3374852</v>
       </c>
       <c r="C27">
-        <v>10272</v>
+        <v>9951</v>
       </c>
       <c r="D27">
-        <v>38702</v>
+        <v>39843</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -710,26 +813,38 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>490829</v>
+        <v>3498839</v>
       </c>
       <c r="C28">
-        <v>10249</v>
+        <v>9224</v>
       </c>
       <c r="D28">
-        <v>38218</v>
+        <v>39634</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B29">
+        <f>AVERAGE(B26:B28)</f>
+        <v>3462483</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C26:C28)</f>
+        <v>9782.6666666666661</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D26:D28)</f>
+        <v>39811.666666666664</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
@@ -747,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>565381</v>
+        <v>3553951</v>
       </c>
       <c r="C33">
-        <v>11134</v>
+        <v>10732</v>
       </c>
       <c r="D33">
-        <v>43359</v>
+        <v>36621</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -761,13 +876,13 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>574299</v>
+        <v>3545345</v>
       </c>
       <c r="C34">
-        <v>11106</v>
+        <v>11108</v>
       </c>
       <c r="D34">
-        <v>43356</v>
+        <v>44325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -775,26 +890,38 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>576702</v>
+        <v>3573495</v>
       </c>
       <c r="C35">
-        <v>11110</v>
+        <v>9713</v>
       </c>
       <c r="D35">
-        <v>43549</v>
+        <v>43666</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B36">
+        <f>AVERAGE(B33:B35)</f>
+        <v>3557597</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C33:C35)</f>
+        <v>10517.666666666666</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(D33:D35)</f>
+        <v>41537.333333333336</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
@@ -812,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>618548</v>
+        <v>3668393</v>
       </c>
       <c r="C40">
-        <v>12433</v>
+        <v>12557</v>
       </c>
       <c r="D40">
-        <v>49315</v>
+        <v>51060</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -826,13 +953,13 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>619920</v>
+        <v>3672742</v>
       </c>
       <c r="C41">
-        <v>12550</v>
+        <v>12299</v>
       </c>
       <c r="D41">
-        <v>49576</v>
+        <v>50305</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -840,26 +967,38 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>617539</v>
+        <v>3674080</v>
       </c>
       <c r="C42">
-        <v>12443</v>
+        <v>10419</v>
       </c>
       <c r="D42">
-        <v>49174</v>
+        <v>48765</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B43">
+        <f>AVERAGE(B40:B42)</f>
+        <v>3671738.3333333335</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(C40:C42)</f>
+        <v>11758.333333333334</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(D40:D42)</f>
+        <v>50043.333333333336</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
@@ -877,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>668789</v>
+        <v>3691345</v>
       </c>
       <c r="C47">
-        <v>14600</v>
+        <v>14853</v>
       </c>
       <c r="D47">
-        <v>56168</v>
+        <v>54361</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -891,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>690128</v>
+        <v>3692742</v>
       </c>
       <c r="C48">
-        <v>14286</v>
+        <v>14342</v>
       </c>
       <c r="D48">
-        <v>55891</v>
+        <v>55174</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -905,26 +1044,37 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>659374</v>
+        <v>3657749</v>
       </c>
       <c r="C49">
-        <v>14450</v>
+        <v>13837</v>
       </c>
       <c r="D49">
-        <v>56002</v>
+        <v>53811</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B50">
+        <f>AVERAGE(B47:B49)</f>
+        <v>3680612</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE(C47:C49)</f>
+        <v>14344</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(D47:D49)</f>
+        <v>54448.666666666664</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
@@ -934,4 +1084,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>89079</v>
+      </c>
+      <c r="C5">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>71889</v>
+      </c>
+      <c r="C6">
+        <v>10253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>72068</v>
+      </c>
+      <c r="C7">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B5:B7)</f>
+        <v>77678.666666666672</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C5:C7)</f>
+        <v>10234.333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>167783</v>
+      </c>
+      <c r="C12">
+        <v>16308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>151498</v>
+      </c>
+      <c r="C13">
+        <v>16344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>151528</v>
+      </c>
+      <c r="C14">
+        <v>16298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B12:B14)</f>
+        <v>156936.33333333334</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C12:C14)</f>
+        <v>16316.666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>334935</v>
+      </c>
+      <c r="C19">
+        <v>29359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>317955</v>
+      </c>
+      <c r="C20">
+        <v>29316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>317822</v>
+      </c>
+      <c r="C21">
+        <v>29348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B19:B21)</f>
+        <v>323570.66666666669</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C19:C21)</f>
+        <v>29341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>653850</v>
+      </c>
+      <c r="C26">
+        <v>55945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>644086</v>
+      </c>
+      <c r="C27">
+        <v>55887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>611493</v>
+      </c>
+      <c r="C28">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B26:B28)</f>
+        <v>636476.33333333337</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C26:C28)</f>
+        <v>52422.666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1313612</v>
+      </c>
+      <c r="C33">
+        <v>110532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>309206</v>
+      </c>
+      <c r="C34">
+        <v>110455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1308623</v>
+      </c>
+      <c r="C35">
+        <v>110334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(B33:B35)</f>
+        <v>977147</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C33:C35)</f>
+        <v>110440.33333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2662585</v>
+      </c>
+      <c r="C40">
+        <v>223359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2663207</v>
+      </c>
+      <c r="C41">
+        <v>218215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2633043</v>
+      </c>
+      <c r="C42">
+        <v>217935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <f>AVERAGE(B40:B42)</f>
+        <v>2652945</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(C40:C42)</f>
+        <v>219836.33333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>5383290</v>
+      </c>
+      <c r="C47">
+        <v>442789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>5497422</v>
+      </c>
+      <c r="C48">
+        <v>446483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>5174683</v>
+      </c>
+      <c r="C49">
+        <v>366871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(B47:B49)</f>
+        <v>5351798.333333333</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE(C47:C49)</f>
+        <v>418714.33333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>